--- a/OUTPUT/ap_news_data.xlsx
+++ b/OUTPUT/ap_news_data.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>d:\Usuario\Desktop\Project_Thought\ProjectScrapper\IMAGES\image_20240716_171348.jpg</t>
+          <t>d:\Usuario\Desktop\Main\APScrapper\IMAGES\image_20240716_175507.jpg</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -499,7 +499,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>d:\Usuario\Desktop\Project_Thought\ProjectScrapper\IMAGES\image_20240716_171350.jpg</t>
+          <t>d:\Usuario\Desktop\Main\APScrapper\IMAGES\image_20240716_175508.jpg</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -527,7 +527,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>d:\Usuario\Desktop\Project_Thought\ProjectScrapper\IMAGES\image_20240716_171351.jpg</t>
+          <t>d:\Usuario\Desktop\Main\APScrapper\IMAGES\image_20240716_175510.jpg</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -555,7 +555,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>d:\Usuario\Desktop\Project_Thought\ProjectScrapper\IMAGES\image_20240716_171353.jpg</t>
+          <t>d:\Usuario\Desktop\Main\APScrapper\IMAGES\image_20240716_175511.jpg</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -583,7 +583,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>d:\Usuario\Desktop\Project_Thought\ProjectScrapper\IMAGES\image_20240716_171354.jpg</t>
+          <t>d:\Usuario\Desktop\Main\APScrapper\IMAGES\image_20240716_175513.jpg</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -611,7 +611,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>d:\Usuario\Desktop\Project_Thought\ProjectScrapper\IMAGES\image_20240716_171356.jpg</t>
+          <t>d:\Usuario\Desktop\Main\APScrapper\IMAGES\image_20240716_175514.jpg</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>d:\Usuario\Desktop\Project_Thought\ProjectScrapper\IMAGES\image_20240716_171357.jpg</t>
+          <t>d:\Usuario\Desktop\Main\APScrapper\IMAGES\image_20240716_175515.jpg</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -667,7 +667,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>d:\Usuario\Desktop\Project_Thought\ProjectScrapper\IMAGES\image_20240716_171359.jpg</t>
+          <t>d:\Usuario\Desktop\Main\APScrapper\IMAGES\image_20240716_175516.jpg</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>d:\Usuario\Desktop\Project_Thought\ProjectScrapper\IMAGES\image_20240716_171400.jpg</t>
+          <t>d:\Usuario\Desktop\Main\APScrapper\IMAGES\image_20240716_175518.jpg</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -723,7 +723,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>d:\Usuario\Desktop\Project_Thought\ProjectScrapper\IMAGES\image_20240716_171401.jpg</t>
+          <t>d:\Usuario\Desktop\Main\APScrapper\IMAGES\image_20240716_175519.jpg</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -751,7 +751,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>d:\Usuario\Desktop\Project_Thought\ProjectScrapper\IMAGES\image_20240716_171403.jpg</t>
+          <t>d:\Usuario\Desktop\Main\APScrapper\IMAGES\image_20240716_175520.jpg</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>d:\Usuario\Desktop\Project_Thought\ProjectScrapper\IMAGES\image_20240716_171404.jpg</t>
+          <t>d:\Usuario\Desktop\Main\APScrapper\IMAGES\image_20240716_175521.jpg</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -807,7 +807,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>d:\Usuario\Desktop\Project_Thought\ProjectScrapper\IMAGES\image_20240716_171405.jpg</t>
+          <t>d:\Usuario\Desktop\Main\APScrapper\IMAGES\image_20240716_175523.jpg</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -835,7 +835,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>d:\Usuario\Desktop\Project_Thought\ProjectScrapper\IMAGES\image_20240716_171407.jpg</t>
+          <t>d:\Usuario\Desktop\Main\APScrapper\IMAGES\image_20240716_175524.jpg</t>
         </is>
       </c>
       <c r="E15" t="n">
